--- a/new_data.xlsx
+++ b/new_data.xlsx
@@ -510,11 +510,9 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -524,15 +522,11 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>5</v>
       </c>
@@ -545,9 +539,7 @@
       <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>5</v>
       </c>
@@ -565,27 +557,19 @@
       <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>13</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>13</v>
       </c>
@@ -594,18 +578,12 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>7</v>
       </c>
@@ -618,12 +596,8 @@
       <c r="I5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -635,27 +609,23 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>3</v>
       </c>
@@ -670,27 +640,17 @@
       <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>10</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>10</v>
       </c>
@@ -702,12 +662,8 @@
       <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>11</v>
       </c>
@@ -723,9 +679,7 @@
       <c r="I8" t="n">
         <v>11</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>9</v>
       </c>
@@ -740,24 +694,16 @@
       <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>6</v>
       </c>
@@ -781,21 +727,15 @@
       <c r="E10" t="n">
         <v>14</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>14</v>
       </c>
       <c r="H10" t="n">
         <v>14</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>14</v>
       </c>
@@ -825,12 +765,8 @@
       <c r="H11" t="n">
         <v>16</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>16</v>
       </c>
